--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd6-Alcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd6-Alcam.xlsx
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03258166666666667</v>
+        <v>0.006707333333333333</v>
       </c>
       <c r="H2">
-        <v>0.097745</v>
+        <v>0.020122</v>
       </c>
       <c r="I2">
-        <v>0.07363834603204619</v>
+        <v>0.02155011537054857</v>
       </c>
       <c r="J2">
-        <v>0.07573139740291938</v>
+        <v>0.02170068115248067</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="N2">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="O2">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="P2">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="Q2">
-        <v>0.003740549102222222</v>
+        <v>0.009890895319333333</v>
       </c>
       <c r="R2">
-        <v>0.03366494192</v>
+        <v>0.089018057874</v>
       </c>
       <c r="S2">
-        <v>0.0001080626258444143</v>
+        <v>0.0005249777305246894</v>
       </c>
       <c r="T2">
-        <v>0.0001117717226338459</v>
+        <v>0.0005313691242311475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03258166666666667</v>
+        <v>0.006707333333333333</v>
       </c>
       <c r="H3">
-        <v>0.097745</v>
+        <v>0.020122</v>
       </c>
       <c r="I3">
-        <v>0.07363834603204619</v>
+        <v>0.02155011537054857</v>
       </c>
       <c r="J3">
-        <v>0.07573139740291938</v>
+        <v>0.02170068115248067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.291067</v>
       </c>
       <c r="O3">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="P3">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="Q3">
-        <v>0.03574281599055556</v>
+        <v>0.007358094463777777</v>
       </c>
       <c r="R3">
-        <v>0.321685343915</v>
+        <v>0.06622285017400001</v>
       </c>
       <c r="S3">
-        <v>0.001032592393645763</v>
+        <v>0.0003905445976189648</v>
       </c>
       <c r="T3">
-        <v>0.001068034667069484</v>
+        <v>0.0003952993217494881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03258166666666667</v>
+        <v>0.006707333333333333</v>
       </c>
       <c r="H4">
-        <v>0.097745</v>
+        <v>0.020122</v>
       </c>
       <c r="I4">
-        <v>0.07363834603204619</v>
+        <v>0.02155011537054857</v>
       </c>
       <c r="J4">
-        <v>0.07573139740291938</v>
+        <v>0.02170068115248067</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="N4">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="O4">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="P4">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="Q4">
-        <v>0.947748520085</v>
+        <v>0.2478063515542222</v>
       </c>
       <c r="R4">
-        <v>8.529736680765</v>
+        <v>2.230257163988</v>
       </c>
       <c r="S4">
-        <v>0.02737998911969859</v>
+        <v>0.01315278464167463</v>
       </c>
       <c r="T4">
-        <v>0.02831976852025436</v>
+        <v>0.0133129145292742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03258166666666667</v>
+        <v>0.006707333333333333</v>
       </c>
       <c r="H5">
-        <v>0.097745</v>
+        <v>0.020122</v>
       </c>
       <c r="I5">
-        <v>0.07363834603204619</v>
+        <v>0.02155011537054857</v>
       </c>
       <c r="J5">
-        <v>0.07573139740291938</v>
+        <v>0.02170068115248067</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="N5">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="O5">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="P5">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="Q5">
-        <v>0.043620954385</v>
+        <v>0.006243031598</v>
       </c>
       <c r="R5">
-        <v>0.26172572631</v>
+        <v>0.037458189588</v>
       </c>
       <c r="S5">
-        <v>0.001260187941359225</v>
+        <v>0.0003313605547422649</v>
       </c>
       <c r="T5">
-        <v>0.00086896140669959</v>
+        <v>0.0002235964912291505</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03258166666666667</v>
+        <v>0.006707333333333333</v>
       </c>
       <c r="H6">
-        <v>0.097745</v>
+        <v>0.020122</v>
       </c>
       <c r="I6">
-        <v>0.07363834603204619</v>
+        <v>0.02155011537054857</v>
       </c>
       <c r="J6">
-        <v>0.07573139740291938</v>
+        <v>0.02170068115248067</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="N6">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="O6">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="P6">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="Q6">
-        <v>1.518112142427222</v>
+        <v>0.1347187261835556</v>
       </c>
       <c r="R6">
-        <v>13.663009281845</v>
+        <v>1.212468535652</v>
       </c>
       <c r="S6">
-        <v>0.04385751395149819</v>
+        <v>0.007150447845988023</v>
       </c>
       <c r="T6">
-        <v>0.0453628610862621</v>
+        <v>0.00723750168599668</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>0.207035</v>
       </c>
       <c r="I7">
-        <v>0.1559743717913416</v>
+        <v>0.221728860736583</v>
       </c>
       <c r="J7">
-        <v>0.1604076920692968</v>
+        <v>0.2232780301363599</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="N7">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="O7">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="P7">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="Q7">
-        <v>0.007922907395555555</v>
+        <v>0.1017672951216667</v>
       </c>
       <c r="R7">
-        <v>0.07130616655999999</v>
+        <v>0.9159056560949999</v>
       </c>
       <c r="S7">
-        <v>0.0002288889021607072</v>
+        <v>0.005401489138215837</v>
       </c>
       <c r="T7">
-        <v>0.0002367451899892404</v>
+        <v>0.005467250106112494</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.207035</v>
       </c>
       <c r="I8">
-        <v>0.1559743717913416</v>
+        <v>0.221728860736583</v>
       </c>
       <c r="J8">
-        <v>0.1604076920692968</v>
+        <v>0.2232780301363599</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.291067</v>
       </c>
       <c r="O8">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="P8">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="Q8">
         <v>0.07570733959388888</v>
@@ -948,10 +948,10 @@
         <v>0.681366056345</v>
       </c>
       <c r="S8">
-        <v>0.002187147846114385</v>
+        <v>0.004018308357421846</v>
       </c>
       <c r="T8">
-        <v>0.002262218602452614</v>
+        <v>0.004067229653036738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.207035</v>
       </c>
       <c r="I9">
-        <v>0.1559743717913416</v>
+        <v>0.221728860736583</v>
       </c>
       <c r="J9">
-        <v>0.1604076920692968</v>
+        <v>0.2232780301363599</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="N9">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="O9">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="P9">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="Q9">
-        <v>2.007438895655</v>
+        <v>2.549676373821111</v>
       </c>
       <c r="R9">
-        <v>18.066950060895</v>
+        <v>22.94708736439</v>
       </c>
       <c r="S9">
-        <v>0.05799392344771392</v>
+        <v>0.1353288325359858</v>
       </c>
       <c r="T9">
-        <v>0.05998448284404177</v>
+        <v>0.1369764068963465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.207035</v>
       </c>
       <c r="I10">
-        <v>0.1559743717913416</v>
+        <v>0.221728860736583</v>
       </c>
       <c r="J10">
-        <v>0.1604076920692968</v>
+        <v>0.2232780301363599</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="N10">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="O10">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="P10">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="Q10">
-        <v>0.092394130555</v>
+        <v>0.06423447206499999</v>
       </c>
       <c r="R10">
-        <v>0.5543647833299999</v>
+        <v>0.38540683239</v>
       </c>
       <c r="S10">
-        <v>0.002669221038818427</v>
+        <v>0.003409364499108678</v>
       </c>
       <c r="T10">
-        <v>0.00184055885043787</v>
+        <v>0.002300581431350122</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.207035</v>
       </c>
       <c r="I11">
-        <v>0.1559743717913416</v>
+        <v>0.221728860736583</v>
       </c>
       <c r="J11">
-        <v>0.1604076920692968</v>
+        <v>0.2232780301363599</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="N11">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="O11">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="P11">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="Q11">
-        <v>3.215533760370555</v>
+        <v>1.386119246367778</v>
       </c>
       <c r="R11">
-        <v>28.939803843335</v>
+        <v>12.47507321731</v>
       </c>
       <c r="S11">
-        <v>0.09289519055653413</v>
+        <v>0.07357086620585082</v>
       </c>
       <c r="T11">
-        <v>0.09608368658237532</v>
+        <v>0.07446656204951409</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.13389</v>
+        <v>0.1247876666666667</v>
       </c>
       <c r="H12">
-        <v>0.40167</v>
+        <v>0.374363</v>
       </c>
       <c r="I12">
-        <v>0.3026069307963782</v>
+        <v>0.4009326031440549</v>
       </c>
       <c r="J12">
-        <v>0.3112080453714321</v>
+        <v>0.4037338285600894</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="N12">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="O12">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="P12">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="Q12">
-        <v>0.01537128608</v>
+        <v>0.1840167599856667</v>
       </c>
       <c r="R12">
-        <v>0.13834157472</v>
+        <v>1.656150839871</v>
       </c>
       <c r="S12">
-        <v>0.0004440689029917224</v>
+        <v>0.009767033005288455</v>
       </c>
       <c r="T12">
-        <v>0.0004593109400003775</v>
+        <v>0.009885942722122305</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.13389</v>
+        <v>0.1247876666666667</v>
       </c>
       <c r="H13">
-        <v>0.40167</v>
+        <v>0.374363</v>
       </c>
       <c r="I13">
-        <v>0.3026069307963782</v>
+        <v>0.4009326031440549</v>
       </c>
       <c r="J13">
-        <v>0.3112080453714321</v>
+        <v>0.4037338285600894</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.291067</v>
       </c>
       <c r="O13">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="P13">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="Q13">
-        <v>0.14688032021</v>
+        <v>0.1368948572578889</v>
       </c>
       <c r="R13">
-        <v>1.32192288189</v>
+        <v>1.232053715321</v>
       </c>
       <c r="S13">
-        <v>0.004243300289075592</v>
+        <v>0.007265950064527806</v>
       </c>
       <c r="T13">
-        <v>0.00438894556981738</v>
+        <v>0.007354410097808546</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.13389</v>
+        <v>0.1247876666666667</v>
       </c>
       <c r="H14">
-        <v>0.40167</v>
+        <v>0.374363</v>
       </c>
       <c r="I14">
-        <v>0.3026069307963782</v>
+        <v>0.4009326031440549</v>
       </c>
       <c r="J14">
-        <v>0.3112080453714321</v>
+        <v>0.4037338285600894</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="N14">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="O14">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="P14">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="Q14">
-        <v>3.894645742109999</v>
+        <v>4.610353304189111</v>
       </c>
       <c r="R14">
-        <v>35.05181167899</v>
+        <v>41.493179737702</v>
       </c>
       <c r="S14">
-        <v>0.1125144020636281</v>
+        <v>0.2447031068885418</v>
       </c>
       <c r="T14">
-        <v>0.1163762997752373</v>
+        <v>0.2476822692536864</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.13389</v>
+        <v>0.1247876666666667</v>
       </c>
       <c r="H15">
-        <v>0.40167</v>
+        <v>0.374363</v>
       </c>
       <c r="I15">
-        <v>0.3026069307963782</v>
+        <v>0.4009326031440549</v>
       </c>
       <c r="J15">
-        <v>0.3112080453714321</v>
+        <v>0.4037338285600894</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="N15">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="O15">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="P15">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="Q15">
-        <v>0.17925447591</v>
+        <v>0.116149490017</v>
       </c>
       <c r="R15">
-        <v>1.07552685546</v>
+        <v>0.696896940102</v>
       </c>
       <c r="S15">
-        <v>0.005178573741938308</v>
+        <v>0.006164850976790504</v>
       </c>
       <c r="T15">
-        <v>0.003570880640738906</v>
+        <v>0.00415993704631838</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.13389</v>
+        <v>0.1247876666666667</v>
       </c>
       <c r="H16">
-        <v>0.40167</v>
+        <v>0.374363</v>
       </c>
       <c r="I16">
-        <v>0.3026069307963782</v>
+        <v>0.4009326031440549</v>
       </c>
       <c r="J16">
-        <v>0.3112080453714321</v>
+        <v>0.4037338285600894</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="N16">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="O16">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="P16">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="Q16">
-        <v>6.238478738029998</v>
+        <v>2.506396307039778</v>
       </c>
       <c r="R16">
-        <v>56.14630864226999</v>
+        <v>22.557566763358</v>
       </c>
       <c r="S16">
-        <v>0.1802265857987445</v>
+        <v>0.1330316622089064</v>
       </c>
       <c r="T16">
-        <v>0.1864126084456381</v>
+        <v>0.1346512694401538</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.0366855</v>
+        <v>0.0064785</v>
       </c>
       <c r="H17">
-        <v>0.07337099999999999</v>
+        <v>0.012957</v>
       </c>
       <c r="I17">
-        <v>0.08291348539644883</v>
+        <v>0.02081489251984379</v>
       </c>
       <c r="J17">
-        <v>0.05684677844237145</v>
+        <v>0.01397354764400616</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="N17">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="O17">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="P17">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="Q17">
-        <v>0.004211691055999999</v>
+        <v>0.009553448761499999</v>
       </c>
       <c r="R17">
-        <v>0.025270146336</v>
+        <v>0.05732069256899999</v>
       </c>
       <c r="S17">
-        <v>0.0001216736854186484</v>
+        <v>0.0005070671246204453</v>
       </c>
       <c r="T17">
-        <v>8.389997505108098E-05</v>
+        <v>0.0003421603092467437</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.0366855</v>
+        <v>0.0064785</v>
       </c>
       <c r="H18">
-        <v>0.07337099999999999</v>
+        <v>0.012957</v>
       </c>
       <c r="I18">
-        <v>0.08291348539644883</v>
+        <v>0.02081489251984379</v>
       </c>
       <c r="J18">
-        <v>0.05684677844237145</v>
+        <v>0.01397354764400616</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.291067</v>
       </c>
       <c r="O18">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="P18">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="Q18">
-        <v>0.04024481280949999</v>
+        <v>0.0071070591865</v>
       </c>
       <c r="R18">
-        <v>0.241468876857</v>
+        <v>0.042642355119</v>
       </c>
       <c r="S18">
-        <v>0.001162652869929663</v>
+        <v>0.0003772204317176916</v>
       </c>
       <c r="T18">
-        <v>0.0008017061901637437</v>
+        <v>0.0002545419596415921</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.0366855</v>
+        <v>0.0064785</v>
       </c>
       <c r="H19">
-        <v>0.07337099999999999</v>
+        <v>0.012957</v>
       </c>
       <c r="I19">
-        <v>0.08291348539644883</v>
+        <v>0.02081489251984379</v>
       </c>
       <c r="J19">
-        <v>0.05684677844237145</v>
+        <v>0.01397354764400616</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="N19">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="O19">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="P19">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="Q19">
-        <v>1.0671224615145</v>
+        <v>0.239351970263</v>
       </c>
       <c r="R19">
-        <v>6.402734769086999</v>
+        <v>1.436111821578</v>
       </c>
       <c r="S19">
-        <v>0.03082864363959392</v>
+        <v>0.01270405257445916</v>
       </c>
       <c r="T19">
-        <v>0.0212578621525355</v>
+        <v>0.008572479552519918</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.0366855</v>
+        <v>0.0064785</v>
       </c>
       <c r="H20">
-        <v>0.07337099999999999</v>
+        <v>0.012957</v>
       </c>
       <c r="I20">
-        <v>0.08291348539644883</v>
+        <v>0.02081489251984379</v>
       </c>
       <c r="J20">
-        <v>0.05684677844237145</v>
+        <v>0.01397354764400616</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="N20">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="O20">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="P20">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="Q20">
-        <v>0.04911524442449999</v>
+        <v>0.006030038794499999</v>
       </c>
       <c r="R20">
-        <v>0.196460977698</v>
+        <v>0.024120155178</v>
       </c>
       <c r="S20">
-        <v>0.001418915281274761</v>
+        <v>0.0003200555641433899</v>
       </c>
       <c r="T20">
-        <v>0.0006522744628467504</v>
+        <v>0.0001439787166711113</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.0366855</v>
+        <v>0.0064785</v>
       </c>
       <c r="H21">
-        <v>0.07337099999999999</v>
+        <v>0.012957</v>
       </c>
       <c r="I21">
-        <v>0.08291348539644883</v>
+        <v>0.02081489251984379</v>
       </c>
       <c r="J21">
-        <v>0.05684677844237145</v>
+        <v>0.01397354764400616</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="N21">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="O21">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="P21">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="Q21">
-        <v>1.7093264003585</v>
+        <v>0.130122542627</v>
       </c>
       <c r="R21">
-        <v>10.255958402151</v>
+        <v>0.780735255762</v>
       </c>
       <c r="S21">
-        <v>0.04938159992023183</v>
+        <v>0.006906496824903102</v>
       </c>
       <c r="T21">
-        <v>0.03405103566177438</v>
+        <v>0.004660387105926795</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1702863333333333</v>
+        <v>0.1042583333333333</v>
       </c>
       <c r="H22">
-        <v>0.510859</v>
+        <v>0.312775</v>
       </c>
       <c r="I22">
-        <v>0.3848668659837852</v>
+        <v>0.3349735282289697</v>
       </c>
       <c r="J22">
-        <v>0.3958060867139802</v>
+        <v>0.3373139125070639</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1148053333333333</v>
+        <v>1.474639</v>
       </c>
       <c r="N22">
-        <v>0.344416</v>
+        <v>4.423916999999999</v>
       </c>
       <c r="O22">
-        <v>0.001467477634511064</v>
+        <v>0.02436078515116209</v>
       </c>
       <c r="P22">
-        <v>0.001475896741204689</v>
+        <v>0.02448628780347778</v>
       </c>
       <c r="Q22">
-        <v>0.01954977926044444</v>
+        <v>0.1537434044083333</v>
       </c>
       <c r="R22">
-        <v>0.175948013344</v>
+        <v>1.383690639675</v>
       </c>
       <c r="S22">
-        <v>0.0005647835180955718</v>
+        <v>0.008160218152512659</v>
       </c>
       <c r="T22">
-        <v>0.0005841689135301437</v>
+        <v>0.008259565541765089</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1702863333333333</v>
+        <v>0.1042583333333333</v>
       </c>
       <c r="H23">
-        <v>0.510859</v>
+        <v>0.312775</v>
       </c>
       <c r="I23">
-        <v>0.3848668659837852</v>
+        <v>0.3349735282289697</v>
       </c>
       <c r="J23">
-        <v>0.3958060867139802</v>
+        <v>0.3373139125070639</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.291067</v>
       </c>
       <c r="O23">
-        <v>0.01402248216162264</v>
+        <v>0.01812262212538788</v>
       </c>
       <c r="P23">
-        <v>0.01410293093348245</v>
+        <v>0.01821598681497149</v>
       </c>
       <c r="Q23">
-        <v>0.1868079107281111</v>
+        <v>0.1143737201027778</v>
       </c>
       <c r="R23">
-        <v>1.681271196553</v>
+        <v>1.029363480925</v>
       </c>
       <c r="S23">
-        <v>0.00539678876285724</v>
+        <v>0.006070598674101566</v>
       </c>
       <c r="T23">
-        <v>0.005582025903979228</v>
+        <v>0.006144505782735121</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1702863333333333</v>
+        <v>0.1042583333333333</v>
       </c>
       <c r="H24">
-        <v>0.510859</v>
+        <v>0.312775</v>
       </c>
       <c r="I24">
-        <v>0.3848668659837852</v>
+        <v>0.3349735282289697</v>
       </c>
       <c r="J24">
-        <v>0.3958060867139802</v>
+        <v>0.3373139125070639</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.088399</v>
+        <v>36.94558466666667</v>
       </c>
       <c r="N24">
-        <v>87.265197</v>
+        <v>110.836754</v>
       </c>
       <c r="O24">
-        <v>0.37181700289389</v>
+        <v>0.6103347669149772</v>
       </c>
       <c r="P24">
-        <v>0.3739501645477712</v>
+        <v>0.6134791085925136</v>
       </c>
       <c r="Q24">
-        <v>4.953356808246999</v>
+        <v>3.851885081372222</v>
       </c>
       <c r="R24">
-        <v>44.580211274223</v>
+        <v>34.66696573234999</v>
       </c>
       <c r="S24">
-        <v>0.1431000446232554</v>
+        <v>0.2044459902743158</v>
       </c>
       <c r="T24">
-        <v>0.1480117512557023</v>
+        <v>0.2069350383606867</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1702863333333333</v>
+        <v>0.1042583333333333</v>
       </c>
       <c r="H25">
-        <v>0.510859</v>
+        <v>0.312775</v>
       </c>
       <c r="I25">
-        <v>0.3848668659837852</v>
+        <v>0.3349735282289697</v>
       </c>
       <c r="J25">
-        <v>0.3958060867139802</v>
+        <v>0.3373139125070639</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.338819</v>
+        <v>0.930777</v>
       </c>
       <c r="N25">
-        <v>2.677638</v>
+        <v>1.861554</v>
       </c>
       <c r="O25">
-        <v>0.01711320268940875</v>
+        <v>0.01537627753005528</v>
       </c>
       <c r="P25">
-        <v>0.01147425554656532</v>
+        <v>0.01030366234396244</v>
       </c>
       <c r="Q25">
-        <v>0.227982578507</v>
+        <v>0.097041258725</v>
       </c>
       <c r="R25">
-        <v>1.367895471042</v>
+        <v>0.5822475523499999</v>
       </c>
       <c r="S25">
-        <v>0.006586304686018031</v>
+        <v>0.005150645935270446</v>
       </c>
       <c r="T25">
-        <v>0.0045415801858422</v>
+        <v>0.003475568658393675</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1702863333333333</v>
+        <v>0.1042583333333333</v>
       </c>
       <c r="H26">
-        <v>0.510859</v>
+        <v>0.312775</v>
       </c>
       <c r="I26">
-        <v>0.3848668659837852</v>
+        <v>0.3349735282289697</v>
       </c>
       <c r="J26">
-        <v>0.3958060867139802</v>
+        <v>0.3373139125070639</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.59406033333332</v>
+        <v>20.08528866666667</v>
       </c>
       <c r="N26">
-        <v>139.782181</v>
+        <v>60.255866</v>
       </c>
       <c r="O26">
-        <v>0.5955798346205675</v>
+        <v>0.3318055482784176</v>
       </c>
       <c r="P26">
-        <v>0.5989967522309763</v>
+        <v>0.3335149544450747</v>
       </c>
       <c r="Q26">
-        <v>7.934331689275442</v>
+        <v>2.094058720905556</v>
       </c>
       <c r="R26">
-        <v>71.40898520347898</v>
+        <v>18.84652848815</v>
       </c>
       <c r="S26">
-        <v>0.2292189443935589</v>
+        <v>0.1111460751927693</v>
       </c>
       <c r="T26">
-        <v>0.2370865604549263</v>
+        <v>0.1124992341634833</v>
       </c>
     </row>
   </sheetData>
